--- a/Final Centralities.xlsx
+++ b/Final Centralities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Azk1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Azk1\StatisticalRankTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Directed and Not-weighted</t>
   </si>
@@ -254,6 +254,42 @@
   </si>
   <si>
     <t>cinna</t>
+  </si>
+  <si>
+    <t>Detects</t>
+  </si>
+  <si>
+    <t>Node centrality (Ranks based on importance of a node)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node centrality (How fast information propagates and more central node is closer to all other nodes) </t>
+  </si>
+  <si>
+    <t>Node centrality (How connected a node is)</t>
+  </si>
+  <si>
+    <t>Node centrality (Global influence of a node)</t>
+  </si>
+  <si>
+    <t>Node centrality (How important a node is for connectivity)</t>
+  </si>
+  <si>
+    <t>Community Centrality (Density of Community structure)</t>
+  </si>
+  <si>
+    <t>Node Centrality (Control of information flow)</t>
+  </si>
+  <si>
+    <t>Community Centrality (Connectivity within a community)</t>
+  </si>
+  <si>
+    <t>Node and Community Centrality (Community influence on or of a node)</t>
+  </si>
+  <si>
+    <t>Community Centrality (Information propagation in a neighborhood using global betweeness)</t>
+  </si>
+  <si>
+    <t>Community and Node Centrality ( How much a node is influencial in a neighborhood )</t>
   </si>
 </sst>
 </file>
@@ -760,7 +796,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -787,9 +823,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,6 +835,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,21 +845,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
@@ -908,6 +929,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,6 +946,21 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1242,37 +1284,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="44" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="39" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="53" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1283,304 +1327,344 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="216.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="216.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="I3" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:9" s="54" customFormat="1" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="I4" s="54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:9" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="I5" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:9" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="I6" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="I7" s="47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+    <row r="8" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
-    <row r="9" spans="1:8" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:9" ht="225.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="H9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="I9" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:9" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="I10" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="37" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:9" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="D11" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="H11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="I11" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="47" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="F13" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="I13" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="40" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="33"/>
+      <c r="H14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="I14" s="42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:9" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="49" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="I15" s="42" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="10">
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="E13" r:id="rId10"/>
-    <hyperlink ref="E14" r:id="rId11"/>
-    <hyperlink ref="E15" r:id="rId12"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F13" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="F15" r:id="rId11"/>
+    <hyperlink ref="F7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
